--- a/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
+++ b/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>658843109fd99c85e8f28b49</v>
+        <v>658847189fd99c85e8f28e40</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>

--- a/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
+++ b/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>658847189fd99c85e8f28e40</v>
+        <v>6588489e9fd99c85e8f28f9f</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>

--- a/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
+++ b/cypress/downloads/order-invoice_atharva.hiwase07.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6588489e9fd99c85e8f28f9f</v>
+        <v>65897e9f9fd99c85e8f34de3</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>
